--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,118 +2711,110 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>applicants</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>The postal code</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N42" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>national-req-types</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2841,7 +2825,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2856,16 +2840,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2873,12 +2849,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2889,12 +2865,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2913,12 +2889,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2929,12 +2905,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2944,56 +2920,64 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3011,12 +2995,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3025,12 +3009,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3059,12 +3043,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3073,7 +3057,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3107,12 +3091,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3121,12 +3105,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3155,12 +3139,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3169,7 +3153,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3203,12 +3187,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3217,7 +3201,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3251,12 +3235,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3265,7 +3249,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3299,12 +3283,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3313,12 +3297,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3347,12 +3331,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3361,7 +3345,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3370,54 +3354,6 @@
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N56" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3425,24 +3361,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="B43"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A44"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,118 +2647,110 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>applicants</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>The postal code</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N41" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>national-req-types</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2777,7 +2761,7 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2792,16 +2776,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2809,12 +2785,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2825,12 +2801,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2849,12 +2825,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2865,12 +2841,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2880,56 +2856,64 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -2947,12 +2931,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2961,12 +2945,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2995,12 +2979,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3009,7 +2993,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3043,12 +3027,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3057,12 +3041,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3091,12 +3075,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3105,7 +3089,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3139,12 +3123,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3153,7 +3137,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3187,12 +3171,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3201,7 +3185,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3235,12 +3219,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3249,12 +3233,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3283,12 +3267,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3297,7 +3281,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3306,54 +3290,6 @@
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>site-locations</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3361,24 +3297,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A23:A30"/>
     <mergeCell ref="A42"/>
     <mergeCell ref="B42"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,110 +2647,118 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>applicants</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>The postal code</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>national-req-types</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>List of the document types required for the given application type</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N42" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>declaration</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2761,7 +2769,7 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2776,8 +2784,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2785,12 +2801,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2801,12 +2817,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2825,12 +2841,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2841,12 +2857,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2856,64 +2872,56 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Declaration date</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -2931,12 +2939,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2945,12 +2953,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2979,12 +2987,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -2993,7 +3001,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3027,12 +3035,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3041,12 +3049,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3075,12 +3083,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3089,7 +3097,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3123,12 +3131,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3137,7 +3145,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3171,12 +3179,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3185,7 +3193,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3219,12 +3227,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3233,12 +3241,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3267,12 +3275,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3281,15 +3289,63 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>site-locations</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3297,24 +3353,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A43"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="A42"/>
     <mergeCell ref="B42"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B41"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
+++ b/generated/spreadsheet/verbose/prior-approval-prior-approval-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
